--- a/ValueSet-fungal-infections-sct.xlsx
+++ b/ValueSet-fungal-infections-sct.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/ValueSet-fungal-infections-sct.xlsx
+++ b/ValueSet-fungal-infections-sct.xlsx
@@ -10,13 +10,12 @@
     <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
     <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
     <sheet name="Include from SNOMED CT 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from SNOMED CT 4" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -535,59 +534,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>